--- a/biology/Botanique/Centrolepidaceae/Centrolepidaceae.xlsx
+++ b/biology/Botanique/Centrolepidaceae/Centrolepidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Centrolépidacées regroupe des plantes monocotylédones ; elle comprend une quarantaine d'espèces réparties entre 3 et 5 genres.
 Ce sont des plantes herbacées ou à l'aspect de mousses des zones tempérées à tropicales de l'Asie du Sud-Est et de l'Australasie. On trouve Gaimarda aussi dans l'Amérique du Sud.
-La famille classification classique de Cronquist (1981)[1] plaçait la famille dans les Restionales. La classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] situent cette famille dans l'ordre des Poales. Toujours au sein des Poales, la classification phylogénétique APG IV (2016)[4] replace les espèces dans la famille des Restionaceae.
+La famille classification classique de Cronquist (1981) plaçait la famille dans les Restionales. La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans l'ordre des Poales. Toujours au sein des Poales, la classification phylogénétique APG IV (2016) replace les espèces dans la famille des Restionaceae.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Centrolepis qui vient de centr (aiguille, épine, éperon) et lepis (écaille)[5] pour qualifier la structure des inflorescences  enfermées dans une paire de bractées munies de pointes en forme de feuilles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Centrolepis qui vient de centr (aiguille, épine, éperon) et lepis (écaille) pour qualifier la structure des inflorescences  enfermées dans une paire de bractées munies de pointes en forme de feuilles.
 </t>
         </is>
       </c>
@@ -544,24 +558,26 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon DELTA Angio           (20 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (20 avr. 2010) :
 genre Aphelia (en) R.Br.
 genre Brizula (en) Hieron.
 genre Centrolepis (en) Labill.
 genre Gaimardia (en) Gaudich.
 genre Pseudalepyrum (en) = Centrolepis
-Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010) :
 genre Aphelia (en)  R.Br. (1810)
 genre Centrolepis  Labill. (1804)
 genre Gaimardia  Gaudich. (1829)
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[8] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) :
 genre Aphelia (en) R.Br.
 genre Brizula Hieron.
 genre Centrolepis Labill.
 genre Gaimardia Gaudich.
-Selon NCBI  (20 avr. 2010)[9] :
+Selon NCBI  (20 avr. 2010) :
 genre Aphelia (en)
 genre Centrolepis
 genre Gaimardia</t>
@@ -592,9 +608,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010) :
 genre Aphelia  R.Br. (1810)
 Aphelia brizula  F.Muell. (1866)
 Aphelia cyperoides  R.Br. (1810)
@@ -633,7 +651,7 @@
 Gaimardia australis  Gaudich. (1829)
 Gaimardia fitzgeraldii  F.Muell. &amp; Rodw. (1903)
 Gaimardia setacea  Hook.f. (1853)
-Selon NCBI  (20 avr. 2010)[9] :
+Selon NCBI  (20 avr. 2010) :
 genre Aphelia
 Aphelia brizula
 Aphelia cyperoides
